--- a/biology/Botanique/Michel_Darluc/Michel_Darluc.xlsx
+++ b/biology/Botanique/Michel_Darluc/Michel_Darluc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Darluc est un médecin et un naturaliste français, né le 28 septembre 1717 à Grimaud[1] (Var) et mort le 18 octobre 1783 à Aix-en-Provence (Bouches-du-Rhône)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Darluc est un médecin et un naturaliste français, né le 28 septembre 1717 à Grimaud (Var) et mort le 18 octobre 1783 à Aix-en-Provence (Bouches-du-Rhône).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très jeune il fut attaché comme secrétaire à un prince allemand qu'il accompagne dans ses voyages durant plusieurs années en Allemagne, en Italie et en Espagne. Il étudie la médecine à Barcelone durant deux ans et vient étudier à Aix-en-Provence l'anatomie et la botanique sous la direction du célèbre Lieutaud, neveu de Garidel. Il va à Paris suivre les leçons de chimie de Guillaume-François Rouelle (1703-1770) avant de s’installer à Callian. Ses succès l'ayant bientôt fait remarquer, il est alors nommé professeur de botanique à l’université d’Aix, à son insu et grâce à Gibelin son confrère à l'académie de Marseille. Il fonde le jardin botanique d'Aix qui s'étendait sur une partie du cours St-Louis[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très jeune il fut attaché comme secrétaire à un prince allemand qu'il accompagne dans ses voyages durant plusieurs années en Allemagne, en Italie et en Espagne. Il étudie la médecine à Barcelone durant deux ans et vient étudier à Aix-en-Provence l'anatomie et la botanique sous la direction du célèbre Lieutaud, neveu de Garidel. Il va à Paris suivre les leçons de chimie de Guillaume-François Rouelle (1703-1770) avant de s’installer à Callian. Ses succès l'ayant bientôt fait remarquer, il est alors nommé professeur de botanique à l’université d’Aix, à son insu et grâce à Gibelin son confrère à l'académie de Marseille. Il fonde le jardin botanique d'Aix qui s'étendait sur une partie du cours St-Louis.
 Il parcourt la Provence, s'intéressant à toute l'histoire naturelle, recueillant les informations nécessaires à son livre Histoire naturelle de la Provence, n'hésitant pas à descendre dans les mines de charbon de Fuveau et Gardanne. Les deux premiers tomes paraissent en 1782 et 1784. Devenu complètement aveugle, il meurt en 1783 sans avoir pu terminer le troisième tome. Son ami Gibelin se charge de revoir le manuscrit et le fait publier en 1786. L'auteur adopte pour son exposé la division des diocèses qui, selon lui, a été faite par la nature elle-même, ce qui n'est pas le cas des vigueries établies uniquement pour la comptabilité. Il donne une description de l'ensemble de l'histoire naturelle (géologie, ornithologie, botanique...), des activités économiques (agriculture, pêche, mines...) et de l'économie domestique. 
 En matière d’ornithologie, il décrit environ 120 espèces avec leur nom scientifique, puis en français et en provençal. Son travail constitue le premier ouvrage décrivant une avifaune régionale en France.
 Il décrit également les mammifères de Provence, sauvages ou domestiques.
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il fait notamment paraître les ouvrages suivants :
 Traité des eaux minérales de Gréoulx en Provence (Aix, 1777),
